--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbeyer/work/ddorf/code/ExcelPlotter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2091B5A6-3DCC-214E-873A-96911132E7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09194B32-2C41-CD42-B4B8-89D128DB1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="880" windowWidth="32860" windowHeight="22500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="880" windowWidth="32860" windowHeight="22500" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEAP_TwoGroups" sheetId="17" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="Ungrouped_4xcat" sheetId="21" r:id="rId10"/>
     <sheet name="TimeCourse" sheetId="6" r:id="rId11"/>
     <sheet name="XY_single" sheetId="8" r:id="rId12"/>
-    <sheet name="XY_tripple" sheetId="12" r:id="rId13"/>
-    <sheet name="DoseResponse_grouped" sheetId="10" r:id="rId14"/>
-    <sheet name="DoseResponse_columns" sheetId="11" r:id="rId15"/>
+    <sheet name="XY_single_log" sheetId="22" r:id="rId13"/>
+    <sheet name="XY_tripple" sheetId="12" r:id="rId14"/>
+    <sheet name="DoseResponse_grouped" sheetId="10" r:id="rId15"/>
+    <sheet name="DoseResponse_columns" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="49">
   <si>
     <t>A</t>
   </si>
@@ -244,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,6 +268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750FFA1-D470-3E41-AF67-62D07304E227}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -4005,6 +4007,96 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975F59-EC08-734E-BB04-5A1B391B2181}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFFEF0A-7F0D-9A46-84E4-997D6A77EF02}">
   <dimension ref="A1:B63"/>
   <sheetViews>
@@ -4510,18 +4602,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35771B40-B55D-0146-9B05-9D0ACBA527AD}">
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
@@ -4535,7 +4630,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4549,7 +4644,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="10">
         <v>0.1</v>
       </c>
       <c r="B3" t="s">
@@ -4563,7 +4658,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="10">
         <v>0.3</v>
       </c>
       <c r="B4" t="s">
@@ -4577,7 +4672,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -4591,7 +4686,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -4605,7 +4700,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="10">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -4619,7 +4714,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="10">
         <v>30</v>
       </c>
       <c r="B8" t="s">
@@ -4633,7 +4728,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="10">
         <v>100</v>
       </c>
       <c r="B9" t="s">
@@ -4647,7 +4742,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -4661,7 +4756,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="10">
         <v>0.1</v>
       </c>
       <c r="B11" t="s">
@@ -4675,7 +4770,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>0.3</v>
       </c>
       <c r="B12" t="s">
@@ -4689,7 +4784,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -4703,7 +4798,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -4717,7 +4812,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
       <c r="B15" t="s">
@@ -4731,7 +4826,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="10">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -4745,7 +4840,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="10">
         <v>100</v>
       </c>
       <c r="B17" t="s">
@@ -4759,7 +4854,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="10">
         <v>0</v>
       </c>
       <c r="B18" t="s">
@@ -4773,7 +4868,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="10">
         <v>0.1</v>
       </c>
       <c r="B19" t="s">
@@ -4787,7 +4882,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="10">
         <v>0.3</v>
       </c>
       <c r="B20" t="s">
@@ -4801,7 +4896,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -4815,7 +4910,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -4829,7 +4924,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="10">
         <v>10</v>
       </c>
       <c r="B23" t="s">
@@ -4843,7 +4938,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="10">
         <v>30</v>
       </c>
       <c r="B24" t="s">
@@ -4857,7 +4952,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="10">
         <v>100</v>
       </c>
       <c r="B25" t="s">
@@ -4871,7 +4966,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="10">
         <v>0</v>
       </c>
       <c r="B26" t="s">
@@ -4885,7 +4980,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="A27" s="10">
         <v>0.1</v>
       </c>
       <c r="B27" t="s">
@@ -4899,7 +4994,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" s="10">
         <v>0.3</v>
       </c>
       <c r="B28" t="s">
@@ -4913,7 +5008,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" s="10">
         <v>1</v>
       </c>
       <c r="B29" t="s">
@@ -4927,7 +5022,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="A30" s="10">
         <v>3</v>
       </c>
       <c r="B30" t="s">
@@ -4941,7 +5036,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="10">
         <v>10</v>
       </c>
       <c r="B31" t="s">
@@ -4955,7 +5050,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -4969,7 +5064,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="A33" s="10">
         <v>100</v>
       </c>
       <c r="B33" t="s">
@@ -4983,7 +5078,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="A34" s="10">
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -4997,7 +5092,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="A35" s="10">
         <v>0.1</v>
       </c>
       <c r="B35" t="s">
@@ -5011,7 +5106,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="A36" s="10">
         <v>0.3</v>
       </c>
       <c r="B36" t="s">
@@ -5025,7 +5120,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="A37" s="10">
         <v>1</v>
       </c>
       <c r="B37" t="s">
@@ -5039,7 +5134,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" s="10">
         <v>3</v>
       </c>
       <c r="B38" t="s">
@@ -5053,7 +5148,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="A39" s="10">
         <v>10</v>
       </c>
       <c r="B39" t="s">
@@ -5067,7 +5162,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="A40" s="10">
         <v>30</v>
       </c>
       <c r="B40" t="s">
@@ -5081,7 +5176,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="A41" s="10">
         <v>100</v>
       </c>
       <c r="B41" t="s">
@@ -5095,7 +5190,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="A42" s="10">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5109,7 +5204,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43">
+      <c r="A43" s="10">
         <v>0.1</v>
       </c>
       <c r="B43" t="s">
@@ -5123,7 +5218,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A44" s="10">
         <v>0.3</v>
       </c>
       <c r="B44" t="s">
@@ -5137,7 +5232,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45">
+      <c r="A45" s="10">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -5151,7 +5246,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="A46" s="10">
         <v>3</v>
       </c>
       <c r="B46" t="s">
@@ -5165,7 +5260,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="A47" s="10">
         <v>10</v>
       </c>
       <c r="B47" t="s">
@@ -5179,7 +5274,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="A48" s="10">
         <v>30</v>
       </c>
       <c r="B48" t="s">
@@ -5193,7 +5288,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49">
+      <c r="A49" s="10">
         <v>100</v>
       </c>
       <c r="B49" t="s">
@@ -5211,21 +5306,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C923E9B-E81A-804D-8935-FFACD0D86CE7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V61" sqref="V61"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
@@ -5239,7 +5335,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -5253,7 +5349,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="10">
         <v>0.1</v>
       </c>
       <c r="B3" t="s">
@@ -5267,7 +5363,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="10">
         <v>0.3</v>
       </c>
       <c r="B4" t="s">
@@ -5281,7 +5377,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -5295,7 +5391,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -5309,7 +5405,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="10">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -5323,7 +5419,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="10">
         <v>30</v>
       </c>
       <c r="B8" t="s">
@@ -5337,7 +5433,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="10">
         <v>100</v>
       </c>
       <c r="B9" t="s">
@@ -5351,7 +5447,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -5365,7 +5461,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="10">
         <v>0.1</v>
       </c>
       <c r="B11" t="s">
@@ -5379,7 +5475,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>0.3</v>
       </c>
       <c r="B12" t="s">
@@ -5393,7 +5489,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -5407,7 +5503,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -5421,7 +5517,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
       <c r="B15" t="s">
@@ -5435,7 +5531,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="10">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -5449,7 +5545,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="10">
         <v>100</v>
       </c>
       <c r="B17" t="s">
@@ -5463,7 +5559,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="10">
         <v>0</v>
       </c>
       <c r="B18" t="s">
@@ -5477,7 +5573,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="10">
         <v>0.1</v>
       </c>
       <c r="B19" t="s">
@@ -5491,7 +5587,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="10">
         <v>0.3</v>
       </c>
       <c r="B20" t="s">
@@ -5505,7 +5601,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -5519,7 +5615,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -5533,7 +5629,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="10">
         <v>10</v>
       </c>
       <c r="B23" t="s">
@@ -5547,7 +5643,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="10">
         <v>30</v>
       </c>
       <c r="B24" t="s">
@@ -5561,7 +5657,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="10">
         <v>100</v>
       </c>
       <c r="B25" t="s">

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbeyer/work/ddorf/code/ExcelPlotter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbeyer/work/ddorf/code/ExPlot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10129B44-1C11-6D49-ABBA-259A30C754F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D220D0-D496-8247-8626-9E970BFF7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="1040" windowWidth="32860" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="880" windowWidth="32860" windowHeight="22500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEAP_TwoGroups" sheetId="17" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="45">
   <si>
     <t>A</t>
   </si>
@@ -178,7 +178,13 @@
     <t>Dark</t>
   </si>
   <si>
-    <t>SEAP / U-1 L-1</t>
+    <t>SEAP / U$^{-1}$ L$^{-1}$</t>
+  </si>
+  <si>
+    <t>Metric3</t>
+  </si>
+  <si>
+    <t>Metric4</t>
   </si>
 </sst>
 </file>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BCEB9D-2277-1B4F-9DC4-F45384EB4EB1}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1020,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750FFA1-D470-3E41-AF67-62D07304E227}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1876,6 +1882,9 @@
       <c r="B106">
         <v>25</v>
       </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -9578,15 +9587,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642A00B-427B-6A42-8AE7-8FDA20437EF1}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9599,8 +9608,14 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -9613,8 +9628,14 @@
       <c r="D2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -9627,8 +9648,14 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9641,8 +9668,14 @@
       <c r="D4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9655,8 +9688,14 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -9669,8 +9708,14 @@
       <c r="D6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9683,8 +9728,14 @@
       <c r="D7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -9697,8 +9748,14 @@
       <c r="D8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -9711,8 +9768,14 @@
       <c r="D9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -9725,8 +9788,14 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9739,8 +9808,14 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9753,8 +9828,14 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9765,6 +9846,12 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
     </row>

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbeyer/work/ddorf/code/ExPlot/test_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116AD5F-202E-D44D-A4C4-A814555959E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="900" windowWidth="34940" windowHeight="22500" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22740" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="SEAP_TwoGroups" sheetId="9" r:id="rId1"/>
@@ -28,12 +22,42 @@
     <sheet name="DoseResponseGrouped" sheetId="13" r:id="rId13"/>
     <sheet name="DoseResponseColumns" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="52">
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>SEAP / (U L$^{-1}$)</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>CHO-287</t>
+  </si>
+  <si>
+    <t>455 nm</t>
+  </si>
+  <si>
+    <t>HEKT-287</t>
+  </si>
+  <si>
+    <t>HEKT-288</t>
+  </si>
+  <si>
+    <t>HEK-287</t>
+  </si>
+  <si>
+    <t>HEK-288</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
@@ -57,9 +81,6 @@
   </si>
   <si>
     <t>Measurement3</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
   <si>
     <t>CategoryA</t>
@@ -137,33 +158,6 @@
     <t>Category7</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>SEAP / U$^{-1}$ L$^{-1}$</t>
-  </si>
-  <si>
-    <t>CHO-287</t>
-  </si>
-  <si>
-    <t>455 nm</t>
-  </si>
-  <si>
-    <t>HEKT-287</t>
-  </si>
-  <si>
-    <t>HEKT-288</t>
-  </si>
-  <si>
-    <t>HEK-287</t>
-  </si>
-  <si>
-    <t>HEK-288</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
     <t>Sample ID</t>
   </si>
   <si>
@@ -194,39 +188,380 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -249,31 +584,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -558,487 +1179,489 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19C394-CE89-134B-B588-1FEB63CC8749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>82.9435483870968</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>77.4620493358634</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>90.4071790006325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>73.8187855787476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>182.007168458781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>171.65770609319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>193.127240143369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>131.801075268817</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>142.338709677419</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>133.160522273425</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>130.862775217614</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>124.564772145417</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>163.026113671275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>158.955453149002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>122.012288786482</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>92.073732718894</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>82.943548387096783</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>77.462049335863384</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>90.40717900063251</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>73.818785578747637</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>182.00716845878134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>171.65770609318992</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>193.12724014336916</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>131.80107526881721</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>142.33870967741933</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>133.1605222734255</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>130.86277521761392</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>124.56477214541728</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>163.02611367127491</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>158.95545314900156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>122.01228878648234</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>92.073732718894021</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
       <c r="B18">
-        <v>150.19841269841271</v>
+        <v>150.198412698413</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>131.38120839733742</v>
+        <v>131.381208397337</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>137.58320532514082</v>
+        <v>137.583205325141</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>106.86123911930363</v>
+        <v>106.861239119304</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1.4896459725509548</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.48964597255095</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.7525390227515398</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1.75253902275154</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.378097635635251</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.37809763563525</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.6783477046342217</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.67834770463422</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>24.527753560011625</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24.5277535600116</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3">
-        <v>30.545868449094264</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>30.5458684490943</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3">
-        <v>24.951564467693501</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>24.9515644676935</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
-        <v>21.409524974890001</v>
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>21.40952497489</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3">
-        <v>10.07785732406656</v>
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>10.0778573240666</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>9.4507333405817135</v>
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
+        <v>9.45073334058171</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="3">
-        <v>9.7686513279862623</v>
+        <v>6</v>
+      </c>
+      <c r="B32" s="5">
+        <v>9.76865132798626</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="3">
-        <v>10.340994310024231</v>
+        <v>6</v>
+      </c>
+      <c r="B33" s="5">
+        <v>10.3409943100242</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3">
-        <v>10.988713440999609</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="5">
+        <v>10.9887134409996</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3">
-        <v>10.904311669050266</v>
+        <v>7</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10.9043116690503</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="3">
-        <v>10.849739755395159</v>
+        <v>7</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10.8497397553952</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3">
-        <v>11.243974786800148</v>
+        <v>7</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11.2439747868001</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3">
-        <v>8.4885113228008802</v>
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>8.48851132280088</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="3">
-        <v>10.076393709524089</v>
+        <v>8</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10.0763937095241</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="3">
-        <v>8.6448044471579344</v>
+        <v>8</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8.64480444715793</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3">
-        <v>8.8778676390642897</v>
+        <v>8</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8.87786763906429</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF74713-A224-D64E-AB00-1E77BA364A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1046,7 +1669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1054,7 +1677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1062,7 +1685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1070,7 +1693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1078,7 +1701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1086,7 +1709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1094,7 +1717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1102,7 +1725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1110,7 +1733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1118,7 +1741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1126,7 +1749,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1134,7 +1757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1142,7 +1765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1150,7 +1773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1158,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1166,7 +1789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1174,7 +1797,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1182,7 +1805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1190,7 +1813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1198,7 +1821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1208,20 +1831,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9697802-7F8E-DE4D-A773-A8CD61F812D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="A1" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1229,7 +1854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1237,7 +1862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1245,7 +1870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1253,7 +1878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1261,7 +1886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1269,7 +1894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1277,7 +1902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>64</v>
       </c>
@@ -1285,7 +1910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>128</v>
       </c>
@@ -1295,20 +1920,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52529C28-1F1D-7E4A-9952-D73760DB70C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B63"/>
+      <selection activeCell="A1" sqref="A1:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1316,7 +1943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1324,7 +1951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1332,7 +1959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1340,7 +1967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1348,7 +1975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1356,7 +1983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1364,7 +1991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1372,7 +1999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1380,7 +2007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1388,7 +2015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1396,7 +2023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1404,7 +2031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1412,7 +2039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1420,7 +2047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1428,7 +2055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1436,7 +2063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1444,7 +2071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1452,7 +2079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1460,7 +2087,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1468,7 +2095,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1476,11 +2103,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1488,7 +2115,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1496,7 +2123,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1504,7 +2131,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1512,7 +2139,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1520,7 +2147,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1528,7 +2155,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -1536,47 +2163,47 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>67.599999999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>69.599999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>10</v>
       </c>
       <c r="B32" s="2">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>11</v>
       </c>
       <c r="B33" s="2">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>13</v>
       </c>
@@ -1584,23 +2211,23 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>14</v>
       </c>
       <c r="B36" s="2">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>15</v>
       </c>
       <c r="B37" s="2">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>16</v>
       </c>
@@ -1608,7 +2235,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>17</v>
       </c>
@@ -1616,7 +2243,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>18</v>
       </c>
@@ -1624,7 +2251,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>19</v>
       </c>
@@ -1632,7 +2259,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>20</v>
       </c>
@@ -1640,11 +2267,11 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -1652,7 +2279,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -1660,7 +2287,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -1668,7 +2295,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -1676,7 +2303,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -1684,7 +2311,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>6</v>
       </c>
@@ -1692,15 +2319,15 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>7</v>
       </c>
       <c r="B50" s="2">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>8</v>
       </c>
@@ -1708,7 +2335,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>9</v>
       </c>
@@ -1716,7 +2343,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>10</v>
       </c>
@@ -1724,7 +2351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>11</v>
       </c>
@@ -1732,7 +2359,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>12</v>
       </c>
@@ -1740,7 +2367,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>13</v>
       </c>
@@ -1748,23 +2375,23 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>14</v>
       </c>
       <c r="B57" s="2">
-        <v>78.400000000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>15</v>
       </c>
       <c r="B58" s="2">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>16</v>
       </c>
@@ -1772,7 +2399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>17</v>
       </c>
@@ -1780,7 +2407,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>18</v>
       </c>
@@ -1788,7 +2415,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>19</v>
       </c>
@@ -1796,7 +2423,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>20</v>
       </c>
@@ -1806,28 +2433,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93465C0-F980-BD42-AE3B-DCFAFE81BE26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.8333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -1836,699 +2465,701 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>-1.160301789009557E-2</v>
+        <v>-0.0116030178900956</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
         <v>0.1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.1050500787788813</v>
+        <v>0.105050078778881</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>0.3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>7.238136851877687E-2</v>
+        <v>0.0723813685187769</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>1.768461672591223E-2</v>
+        <v>0.0176846167259122</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>0.54133424862135338</v>
+        <v>0.541334248621353</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>1.0611879185372011</v>
+        <v>1.0611879185372</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.96993244064107487</v>
+        <v>0.969932440641075</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>0.94138663529696798</v>
+        <v>0.941386635296968</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
       <c r="C10">
-        <v>0.28287181242467702</v>
+        <v>0.282871812424677</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
         <v>0.1</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>0.3464579588382104</v>
+        <v>0.34645795883821</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
         <v>0.3</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12">
-        <v>0.34653748046398503</v>
+        <v>0.346537480463985</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13">
-        <v>0.5330711412375152</v>
+        <v>0.533071141237515</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14">
-        <v>0.89718686291577998</v>
+        <v>0.89718686291578</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15">
-        <v>0.93721371785004837</v>
+        <v>0.937213717850048</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16">
-        <v>1.0192548560732091</v>
+        <v>1.01925485607321</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
         <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17">
-        <v>0.94475676849823054</v>
+        <v>0.944756768498231</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18">
-        <v>-7.6175181101414732E-2</v>
+        <v>-0.0761751811014147</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
         <v>0.1</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19">
-        <v>-2.428295431567782E-2</v>
+        <v>-0.0242829543156778</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
         <v>0.3</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20">
-        <v>4.1492220309103857E-2</v>
+        <v>0.0414922203091039</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21">
-        <v>3.9309568150413324E-3</v>
+        <v>0.00393095681504133</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22">
-        <v>0.17342540347960789</v>
+        <v>0.173425403479608</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
         <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23">
-        <v>1.0143303838404929</v>
+        <v>1.01433038384049</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1.044367995223151</v>
+        <v>1.04436799522315</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
         <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>0.98479818398193208</v>
+        <v>0.984798183981932</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>7.6811558119749559E-2</v>
+        <v>0.0768115581197496</v>
       </c>
       <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>0.169872130471685</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>0.0881655895795051</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>0.173203494336608</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>0.16987213047168451</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>8.8165589579505071E-2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>0.17320349433660839</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>3</v>
-      </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>0.4129566848246457</v>
+        <v>0.412956684824646</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>1.0482337627345351</v>
+        <v>1.04823376273454</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>1.089110576543818</v>
+        <v>1.08911057654382</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
         <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>0.89691468950113351</v>
+        <v>0.896914689501134</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
         <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
       </c>
       <c r="C34">
-        <v>0.24317806361774241</v>
+        <v>0.243178063617742</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
         <v>0.1</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
       </c>
       <c r="C35">
-        <v>0.2350474067463087</v>
+        <v>0.235047406746309</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
         <v>0.3</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
       </c>
       <c r="C36">
-        <v>0.36450551901473388</v>
+        <v>0.364505519014734</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
       <c r="C37">
-        <v>0.44992333513825578</v>
+        <v>0.449923335138256</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
         <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
       <c r="C38">
-        <v>0.84448932322063441</v>
+        <v>0.844489323220634</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
         <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
       <c r="C39">
-        <v>0.95125698003294168</v>
+        <v>0.951256980032942</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
         <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40">
-        <v>1.093803134996125</v>
+        <v>1.09380313499613</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
         <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41">
-        <v>1.0180684892502261</v>
+        <v>1.01806848925023</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
         <v>0</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
       <c r="C42">
-        <v>1.738057966294082E-2</v>
+        <v>0.0173805796629408</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
         <v>0.1</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43">
-        <v>-5.1962956397416708E-2</v>
+        <v>-0.0519629563974167</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
         <v>0.3</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3.1073245370127699E-2</v>
+        <v>0.0310732453701277</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>4.4670239756853879E-2</v>
+        <v>0.0446702397568539</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
         <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.13786265774355549</v>
+        <v>0.137862657743555</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
         <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47">
-        <v>1.0346055962589451</v>
+        <v>1.03460559625895</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
         <v>30</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>0.95570230726456751</v>
+        <v>0.955702307264568</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
         <v>100</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>1.054690165299409</v>
+        <v>1.05469016529941</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A43CC-D5AE-4A43-B5AA-0A93B376EBC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>50</v>
@@ -2537,82 +3168,82 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>-1.1603018E-2</v>
+        <v>-0.011603018</v>
       </c>
       <c r="D2" s="2">
-        <v>7.6811558000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+        <v>0.076811558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>0.1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>0.105050079</v>
       </c>
       <c r="D3" s="2">
-        <v>0.16987213000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+        <v>0.16987213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>0.3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>7.2381369000000001E-2</v>
+        <v>0.072381369</v>
       </c>
       <c r="D4" s="2">
-        <v>8.8165590000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+        <v>0.08816559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>1.7684617E-2</v>
+        <v>0.017684617</v>
       </c>
       <c r="D5" s="2">
-        <v>0.17320349400000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+        <v>0.173203494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
-        <v>0.54133424900000005</v>
+        <v>0.541334249</v>
       </c>
       <c r="D6" s="2">
-        <v>0.41295668499999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+        <v>0.412956685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1.061187919</v>
@@ -2621,36 +3252,36 @@
         <v>1.048233763</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96993244099999998</v>
+        <v>0.969932441</v>
       </c>
       <c r="D8" s="2">
         <v>1.089110577</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>0.94138663499999997</v>
+        <v>0.941386635</v>
       </c>
       <c r="D9" s="2">
-        <v>0.89691469000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+        <v>0.89691469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2663,176 +3294,176 @@
         <v>0.243178064</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>0.1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="2">
-        <v>0.34645795899999998</v>
+        <v>0.346457959</v>
       </c>
       <c r="D11" s="2">
-        <v>0.23504740700000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+        <v>0.235047407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>0.3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="2">
-        <v>0.34653748000000001</v>
+        <v>0.34653748</v>
       </c>
       <c r="D12" s="2">
         <v>0.364505519</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="2">
-        <v>0.53307114099999997</v>
+        <v>0.533071141</v>
       </c>
       <c r="D13" s="2">
-        <v>0.44992333499999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+        <v>0.449923335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="2">
-        <v>0.89718686299999995</v>
+        <v>0.897186863</v>
       </c>
       <c r="D14" s="2">
-        <v>0.84448932300000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+        <v>0.844489323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="2">
-        <v>0.93721371799999997</v>
+        <v>0.937213718</v>
       </c>
       <c r="D15" s="2">
-        <v>0.95125698000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+        <v>0.95125698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0192548560000001</v>
+        <v>1.019254856</v>
       </c>
       <c r="D16" s="2">
-        <v>1.0938031349999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+        <v>1.093803135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="2">
-        <v>0.94475676799999997</v>
+        <v>0.944756768</v>
       </c>
       <c r="D17" s="2">
         <v>1.018068489</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="2">
-        <v>-7.6175180999999995E-2</v>
+        <v>-0.076175181</v>
       </c>
       <c r="D18" s="2">
-        <v>1.738058E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+        <v>0.01738058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>0.1</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2">
-        <v>-2.4282953999999999E-2</v>
+        <v>-0.024282954</v>
       </c>
       <c r="D19" s="2">
-        <v>-5.1962955999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+        <v>-0.051962956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>0.3</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>4.1492220000000003E-2</v>
+        <v>0.04149222</v>
       </c>
       <c r="D20" s="2">
-        <v>3.1073244999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+        <v>0.031073245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="2">
-        <v>3.9309569999999997E-3</v>
+        <v>0.003930957</v>
       </c>
       <c r="D21" s="2">
-        <v>4.467024E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+        <v>0.04467024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="2">
-        <v>0.17342540300000001</v>
+        <v>0.173425403</v>
       </c>
       <c r="D22" s="2">
         <v>0.137862658</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2845,8 +3476,8 @@
         <v>1.034605596</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2856,18 +3487,18 @@
         <v>1.044367995</v>
       </c>
       <c r="D24" s="2">
-        <v>0.95570230700000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+        <v>0.955702307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>0.98479818399999997</v>
+        <v>0.984798184</v>
       </c>
       <c r="D25" s="2">
         <v>1.054690165</v>
@@ -2875,3122 +3506,3146 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>10.993428306022469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.9934283060225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>9.7234713976576312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.72347139765763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>11.29537707620138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.2953770762014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>13.046059712816049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.046059712816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>9.5316932505533281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.53169325055333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>9.5317260861016386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.53172608610164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>13.158425631014779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.1584256310148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>11.53486945830582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.5348694583058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>9.0610512281300952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.0610512281301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>11.08512008717193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.0851200871719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>11.073164614375081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.0731646143751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>11.068540492859491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.0685404928595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>12.483924543132069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.4839245431321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>8.1734395106844033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.1734395106844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>8.5501643349739354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.55016433497394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>10.875424941518061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.8754249415181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>9.9743377593311529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.97433775933115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>12.62849466519055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.6284946651905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>10.18395184895758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.1839518489576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>9.1753925973294166</v>
+        <v>9.17539259732942</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>12.931297537843109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.9312975378431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>9.5484473990269283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.54844739902693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>10.135056409375849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.1350564093758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>7.1505036275730864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.15050362757309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>8.9112345509496347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.91123455094963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>10.221845179419731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.2218451794197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>7.6980128451553949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.69801284515539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>10.751396036691339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.7513960366913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>8.7987226201623905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.79872262016239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>9.4166125004134464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.41661250041345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>11.796586775541209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.7965867755412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>16.70455636901788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.7045563690179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>12.97300555052413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.9730055505241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>10.8845781420882</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>14.64508982420638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.6450898242064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>10.558312700057961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.558312700058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>13.41772719000951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.4177271900095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>9.0806597522404484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.08065975224045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>10.34362790220314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.3436279022031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>13.393722471738251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.3937224717383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>16.476933159990821</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.4769331599908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>15.34273656237994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.3427365623799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>14.76870343522352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.7687034352235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>14.397792608821421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.3977926088214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>12.042956019265141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.0429560192651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>13.560311583210581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.5603115832106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>14.078722458080421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.0787224580804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>17.114244452437831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.1142444524378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>15.68723657913692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.6872365791369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>11.473919689274529</v>
+        <v>11.4739196892745</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>10.648167938789589</v>
+        <v>10.6481679387896</v>
       </c>
       <c r="C2">
-        <v>12.140764687730771</v>
+        <v>12.1407646877308</v>
       </c>
       <c r="D2">
-        <v>30.010226913284921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.0102269132849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>9.2298354391673669</v>
+        <v>9.22983543916737</v>
       </c>
       <c r="C3">
-        <v>22.465707513125668</v>
+        <v>22.4657075131257</v>
       </c>
       <c r="D3">
-        <v>29.53082573324971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.5308257332497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>8.6461559993880819</v>
+        <v>8.64615599938808</v>
       </c>
       <c r="C4">
-        <v>20.261141204714509</v>
+        <v>20.2611412047145</v>
       </c>
       <c r="D4">
-        <v>27.16925851589917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.1692585158992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>11.223352577681741</v>
+        <v>11.2233525776817</v>
       </c>
       <c r="C5">
-        <v>19.102977948602401</v>
+        <v>19.1029779486024</v>
       </c>
       <c r="D5">
-        <v>29.158709354469281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.1587093544693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>12.0619990449919</v>
       </c>
       <c r="C6">
-        <v>20.275282329606512</v>
+        <v>20.2752823296065</v>
       </c>
       <c r="D6">
-        <v>29.314570966946459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.3145709669465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>11.862560238232399</v>
+        <v>11.8625602382324</v>
       </c>
       <c r="C7">
-        <v>14.037293256197319</v>
+        <v>14.0372932561973</v>
       </c>
       <c r="D7">
-        <v>28.395445461556761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.3954454615568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>8.3215649535547236</v>
+        <v>8.32156495355472</v>
       </c>
       <c r="C8">
-        <v>19.340984336487459</v>
+        <v>19.3409843364875</v>
       </c>
       <c r="D8">
-        <v>29.677428576667982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.677428576668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>9.3815752482975707</v>
+        <v>9.38157524829757</v>
       </c>
       <c r="C9">
-        <v>21.07133771453524</v>
+        <v>21.0713377145352</v>
       </c>
       <c r="D9">
-        <v>30.808101713629078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.8081017136291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>13.66252686280713</v>
+        <v>13.6625268628071</v>
       </c>
       <c r="C10">
-        <v>26.433682134224551</v>
+        <v>26.4336821342246</v>
       </c>
       <c r="D10">
-        <v>37.772371802421063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.7723718024211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>14.95109025424472</v>
+        <v>14.9510902542447</v>
       </c>
       <c r="C11">
-        <v>20.44518934517906</v>
+        <v>20.4451893451791</v>
       </c>
       <c r="D11">
-        <v>34.349155625663677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.3491556256637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>12.041651524309421</v>
+        <v>12.0416515243094</v>
       </c>
       <c r="C12">
-        <v>19.574519191320441</v>
+        <v>19.5745191913204</v>
       </c>
       <c r="D12">
-        <v>34.515100781445533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.5151007814455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>12.62868204667237</v>
+        <v>12.6286820466724</v>
       </c>
       <c r="C13">
-        <v>20.494728869246391</v>
+        <v>20.4947288692464</v>
       </c>
       <c r="D13">
-        <v>33.851108168467668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.8511081684677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>10.78733005198794</v>
+        <v>10.7873300519879</v>
       </c>
       <c r="C14">
-        <v>24.746206353106221</v>
+        <v>24.7462063531062</v>
       </c>
       <c r="D14">
-        <v>30.162457569401919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.1624575694019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>10.60758675183866</v>
+        <v>10.6075867518387</v>
       </c>
       <c r="C15">
-        <v>22.98625332897905</v>
+        <v>22.986253328979</v>
       </c>
       <c r="D15">
-        <v>33.946972249101563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.9469722491016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>14.6250516447884</v>
       </c>
       <c r="C16">
-        <v>20.41071938869888</v>
+        <v>20.4107193886989</v>
       </c>
       <c r="D16">
-        <v>34.12046041988205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.1204604198821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>15.712480057141651</v>
+        <v>15.7124800571417</v>
       </c>
       <c r="C17">
-        <v>23.539802299340071</v>
+        <v>23.5398022993401</v>
       </c>
       <c r="D17">
-        <v>38.926484224970572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.9264842249706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>15.85597975683933</v>
+        <v>15.8559797568393</v>
       </c>
       <c r="C18">
-        <v>18.291232648044119</v>
+        <v>18.2912326480441</v>
       </c>
       <c r="D18">
-        <v>37.615278070437753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.6152780704378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>18.007065795784051</v>
+        <v>18.0070657957841</v>
       </c>
       <c r="C19">
-        <v>20.905934971598668</v>
+        <v>20.9059349715987</v>
       </c>
       <c r="D19">
-        <v>38.603094684667226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.6030946846672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>16.723272050095272</v>
+        <v>16.7232720500953</v>
       </c>
       <c r="C20">
-        <v>15.89384071836794</v>
+        <v>15.8938407183679</v>
       </c>
       <c r="D20">
-        <v>37.930576460589513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.9305764605895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>14.709760490789749</v>
+        <v>14.7097604907897</v>
       </c>
       <c r="C21">
-        <v>17.017013560206699</v>
+        <v>17.0170135602067</v>
       </c>
       <c r="D21">
-        <v>35.662643924760943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.6626439247609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>16.72279121101683</v>
+        <v>16.7227912110168</v>
       </c>
       <c r="C22">
-        <v>16.823675540603531</v>
+        <v>16.8236755406035</v>
       </c>
       <c r="D22">
-        <v>40.285645629030043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.28564562903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>19.076073132931938</v>
+        <v>19.0760731329319</v>
       </c>
       <c r="C23">
-        <v>13.609455155603641</v>
+        <v>13.6094551556036</v>
       </c>
       <c r="D23">
-        <v>39.50386606537355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.5038660653736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>15.9283479217801</v>
       </c>
       <c r="C24">
-        <v>18.888360831193729</v>
+        <v>18.8883608311937</v>
       </c>
       <c r="D24">
-        <v>39.58206389408609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.5820638940861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>19.129287311628008</v>
+        <v>19.129287311628</v>
       </c>
       <c r="C25">
-        <v>18.783165816539672</v>
+        <v>18.7831658165397</v>
       </c>
       <c r="D25">
-        <v>36.181225090410521</v>
+        <v>36.1812250904105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>12.8055886218722</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>7.1962978744154382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.19629787441544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>11.17371418760054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.1737141876005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>14.38091125161996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.38091125162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>8.0189273497386235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.01892734973862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>8.8674045407944568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.86740454079446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>10.19930273017528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.1993027301753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>8.9930486917676014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.9930486917676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>11.898673137867741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.8986731378677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>15.13712594961205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.1371259496121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>12.87539257254779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12.8753925725478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>15.94718486127036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.9471848612704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>13.16115153153239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.1611515315324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>18.09986881003508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.0998688100351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>13.433493415327529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.4334934153275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>14.35587696758865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.3558769675886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>14.62703443473934</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.6270344347393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>10.53827136713209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.5382713671321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>13.454919869208259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.4549198692083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>15.61428550856486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.6142855085649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>9.7850335308775449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.78503353087754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>13.369267717064609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.3692677170646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>13.519765588496851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.5197655884969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>14.56364574355462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.5636457435546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>15.52609857824384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.5260985782438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>15.35908677383145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.3590867738315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>19.043883131233791</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.0438831312338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>18.59396934646637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.5939693464664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>18.50098570069175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.5009857006917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>18.69289641899395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.6928964189939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>16.639950556843019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.639950556843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>18.464507394322009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.464507394322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>16.586144946597361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.5861449465974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>14.571297163947261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.5712971639473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>19.73154902228951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.7315490222895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>16.947665841823579</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.9476658418236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>13.6173930055947</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>17.31310721726766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.3131072172677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>14.05063665954536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.0506366595454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>17.5741692074849</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>23.317191158014811</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.3171911580148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>19.358635363296582</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.3586353632966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>22.926752258488641</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.9267522584886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>21.825561853873001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.825561853873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>22.644120319988978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.644120319989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>24.793585965307891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24.7935859653079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>20.509223767994261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.5092237679943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>19.492527671285021</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.492527671285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C50">
-        <v>17.220971140748951</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.220971140749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>17.368379430069119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.3683794300691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>18.84579658117179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.8457965811718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C53">
-        <v>19.68230394963329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.6823039496333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>19.553381598660039</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.55338159866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>20.654366498072051</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.6543664980721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>19.026003783755812</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.0260037837558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>21.907068154314629</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.9070681543146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>23.470686333524089</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.4706863335241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C59">
-        <v>29.440338333179241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29.4403383331792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>25.251334695530009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.25133469553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>22.285684887167431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.2856848871674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>21.85821500387777</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.8582150038778</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>24.96494483048637</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24.9649448304864</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>23.5530744293483</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>25.428000988184181</v>
+        <v>25.4280009881842</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>10.709856436860321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.7098564368603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>9.8907566310146908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.89075663101469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>8.729809422897393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.72980942289739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>7.7277291629712028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.7277291629712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>9.3302275718994689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.33022757189947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>11.284598191485211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.2845981914852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>10.32114061619531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.3211406161953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>11.131391831932021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.131391831932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>13.25977138877677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.2597713887768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>13.577976069593261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.5779760695933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>11.674213845698301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.6742138456983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>13.23058765891829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.2305876589183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>13.087313077669</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>11.285544553254059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.2855445532541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>16.536681040522421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.5366810405224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>16.84117678955235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.8411767895523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>17.624576864762911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.6245768647629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>17.580703078052359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.5807030780524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>13.93349594806436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13.9334959480644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>14.593262440127321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.5932624401273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>16.77255290081299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.772552900813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>14.77067892636831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.7706789263683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>14.77257152945907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.7725715294591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>19.779097235982078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.7790972359821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>14.85633576603975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.8563357660398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>15.703348460270901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.7033484602709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>15.431002645239801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.4310026452398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>14.977086876958699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.9770868769587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>16.527096133039478</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.5270961330395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>18.138453830739898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.1384538307399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>15.840762178193639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.8407621781936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>16.64477208988999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.64477208989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>16.271954678256339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.2719546782563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>17.12281120907948</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.1228112090795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>20.471987850010262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.4719878500103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C37">
-        <v>17.199102211112379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.1991022111124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C38">
-        <v>21.029390285561771</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.0293902855618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>17.580926193215522</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.5809261932155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>19.292102201315849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.2921022013158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C41">
-        <v>21.633425895451051</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.6334258954511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>20.096420028643191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.0964200286432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>18.38338283310604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.383382833106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C44">
-        <v>16.927044436110052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.9270444361101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>19.01939662340201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.019396623402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>16.904450052424291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16.9044500524243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>18.32468788437296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.324687884373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>18.068357759855719</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.0683577598557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>17.022599478591271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.0225994785913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>21.215916133987989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.215916133988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>21.95087853347702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.950878533477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>17.962286120013591</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.9622861200136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C53">
-        <v>21.279681472154142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.2796814721541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>20.007320302847418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.0073203028474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C55">
-        <v>22.27865000219434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.2786500021943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>19.811218892350951</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.811218892351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>20.827895337799649</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.8278953377996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>24.757480918470691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24.7574809184707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>25.29863279125518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.2986327912552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C60">
-        <v>22.199555389416339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.1995553894163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C61">
-        <v>23.498248146238581</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.4982481462386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C62">
-        <v>23.28758203325857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.2875820332586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>23.02000615113943</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.0200061511394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C64">
-        <v>26.648181360421649</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.6481813604216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C65">
-        <v>22.60747256644143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22.6074725664414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C66">
-        <v>20.108674068497429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.1086740684974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C67">
-        <v>23.376792920582162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.3767929205822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>25.18323429551895</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.183234295519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>23.54869789082672</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.5486978908267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>19.720945051068981</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19.720945051069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>21.27364889070062</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.2736488907006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C72">
-        <v>26.900366723779928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.9003667237799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C73">
-        <v>23.938495801571829</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.9384958015718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>25.665729142219341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.6657291422193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>26.161951080144011</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.161951080144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C76">
-        <v>23.60960429263287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.6096042926329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>24.9107119659073</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C78">
-        <v>20.138098989896388</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.1380989898964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C79">
-        <v>26.46341853799856</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.4634185379986</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C80">
-        <v>27.621147772910259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27.6211477729103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C81">
-        <v>26.128325227052731</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.1283252270527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C82">
-        <v>30.44861695589745</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30.4486169558974</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C83">
-        <v>25.85478793305905</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.8547879330591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C84">
-        <v>27.339933269954521</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27.3399332699545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>28.196110865929139</v>
+        <v>28.1961108659291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>12.88254657813223</v>
+        <v>12.8825465781322</v>
       </c>
       <c r="D2">
-        <v>17.128275697641119</v>
+        <v>17.1282756976411</v>
       </c>
       <c r="E2">
-        <v>17.326327504309919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17.3263275043099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>10.020466122039171</v>
+        <v>10.0204661220392</v>
       </c>
       <c r="D3">
-        <v>18.036982697904101</v>
+        <v>18.0369826979041</v>
       </c>
       <c r="E3">
-        <v>15.924206948526541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15.9242069485265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>10.39811939114694</v>
+        <v>10.3981193911469</v>
       </c>
       <c r="D4">
-        <v>18.79956624568241</v>
+        <v>18.7995662456824</v>
       </c>
       <c r="E4">
-        <v>15.139604169980039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15.13960416998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>9.2293728062764799</v>
+        <v>9.22937280627648</v>
       </c>
       <c r="D5">
-        <v>20.227034690502499</v>
+        <v>20.2270346905025</v>
       </c>
       <c r="E5">
-        <v>16.324261349042089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16.3242613490421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>13.172033632290701</v>
+        <v>13.1720336322907</v>
       </c>
       <c r="D6">
-        <v>17.524369002346301</v>
+        <v>17.5243690023463</v>
       </c>
       <c r="E6">
-        <v>19.266066749312529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.2660667493125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>6.0958244009549958</v>
+        <v>6.095824400955</v>
       </c>
       <c r="D7">
-        <v>19.69642980992883</v>
+        <v>19.6964298099288</v>
       </c>
       <c r="E7">
-        <v>16.17663441296915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16.1766344129692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>15.56198373547006</v>
+        <v>15.5619837354701</v>
       </c>
       <c r="D8">
-        <v>14.754600960358809</v>
+        <v>14.7546009603588</v>
       </c>
       <c r="E8">
-        <v>17.583755499285449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17.5837554992854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>14.01399813068233</v>
+        <v>14.0139981306823</v>
       </c>
       <c r="D9">
-        <v>14.82127048611158</v>
+        <v>14.8212704861116</v>
       </c>
       <c r="E9">
-        <v>19.69920419404205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.699204194042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>15.714030971930089</v>
+        <v>15.7140309719301</v>
       </c>
       <c r="D10">
-        <v>14.61418080947869</v>
+        <v>14.6141808094787</v>
       </c>
       <c r="E10">
-        <v>19.799199750866499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.7991997508665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>15.61459904175322</v>
+        <v>15.6145990417532</v>
       </c>
       <c r="D11">
-        <v>17.625724237677922</v>
+        <v>17.6257242376779</v>
       </c>
       <c r="E11">
-        <v>19.25925768384722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.2592576838472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>13.342009978155851</v>
+        <v>13.3420099781559</v>
       </c>
       <c r="D12">
-        <v>14.87963791960606</v>
+        <v>14.8796379196061</v>
       </c>
       <c r="E12">
-        <v>19.494587210246529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.4945872102465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>16.22074053086693</v>
+        <v>16.2207405308669</v>
       </c>
       <c r="D13">
         <v>15.9581968120717</v>
       </c>
       <c r="E13">
-        <v>18.23465476661756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.2346547666176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>15.555329791576851</v>
+        <v>15.5553297915769</v>
       </c>
       <c r="D14">
-        <v>20.816857222328341</v>
+        <v>20.8168572223283</v>
       </c>
       <c r="E14">
-        <v>18.09419476234007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.0941947623401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>12.595614695132211</v>
+        <v>12.5956146951322</v>
       </c>
       <c r="D15">
-        <v>21.564637593545559</v>
+        <v>21.5646375935456</v>
       </c>
       <c r="E15">
-        <v>19.197553703974378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.1975537039744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>14.65083269797606</v>
+        <v>14.6508326979761</v>
       </c>
       <c r="D16">
-        <v>23.627019272001281</v>
+        <v>23.6270192720013</v>
       </c>
       <c r="E16">
-        <v>19.61095761430866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.6109576143087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>13.042007683265521</v>
+        <v>13.0420076832655</v>
       </c>
       <c r="D17">
-        <v>23.36390594258993</v>
+        <v>23.3639059425899</v>
       </c>
       <c r="E17">
-        <v>16.37946648681309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16.3794664868131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>13.64833270497688</v>
+        <v>13.6483327049769</v>
       </c>
       <c r="D18">
-        <v>21.739713891264628</v>
+        <v>21.7397138912646</v>
       </c>
       <c r="E18">
-        <v>17.19399192998544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17.1939919299854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>14.19031405087383</v>
+        <v>14.1903140508738</v>
       </c>
       <c r="D19">
-        <v>20.36355863353306</v>
+        <v>20.3635586335331</v>
       </c>
       <c r="E19">
-        <v>21.184774551370921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.1847745513709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>15.9879652370006</v>
       </c>
       <c r="D20">
-        <v>15.57162277442454</v>
+        <v>15.5716227744245</v>
       </c>
       <c r="E20">
-        <v>22.316221747000139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22.3162217470001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>19.583325387925871</v>
+        <v>19.5833253879259</v>
       </c>
       <c r="D21">
-        <v>19.248239634104308</v>
+        <v>19.2482396341043</v>
       </c>
       <c r="E21">
-        <v>21.25669101852856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.2566910185286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>17.975506454306171</v>
+        <v>17.9755064543062</v>
       </c>
       <c r="D22">
-        <v>16.205491257028338</v>
+        <v>16.2054912570283</v>
       </c>
       <c r="E22">
-        <v>20.151609116387451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.1516091163875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>16.645676576975781</v>
+        <v>16.6456765769758</v>
       </c>
       <c r="D23">
-        <v>19.950239466835502</v>
+        <v>19.9502394668355</v>
       </c>
       <c r="E23">
-        <v>19.705885236995719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.7058852369957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>16.34900560641498</v>
+        <v>16.349005606415</v>
       </c>
       <c r="D24">
-        <v>17.357228316694009</v>
+        <v>17.357228316694</v>
       </c>
       <c r="E24">
-        <v>20.825862908551251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.8258629085513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>16.872550894392049</v>
+        <v>16.872550894392</v>
       </c>
       <c r="D25">
-        <v>16.355559208867142</v>
+        <v>16.3555592088671</v>
       </c>
       <c r="E25">
-        <v>20.487374422983819</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.4873744229838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>16.489933142217449</v>
+        <v>16.4899331422174</v>
       </c>
       <c r="D26">
-        <v>22.986113649257739</v>
+        <v>22.9861136492577</v>
       </c>
       <c r="E26">
-        <v>18.057923388763349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.0579233887633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>16.46409987471527</v>
+        <v>16.4640998747153</v>
       </c>
       <c r="D27">
-        <v>21.103831317005351</v>
+        <v>21.1038313170054</v>
       </c>
       <c r="E27">
-        <v>16.185072451246889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16.1850724512469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>14.56311155749513</v>
+        <v>14.5631115574951</v>
       </c>
       <c r="D28">
-        <v>23.573105696576309</v>
+        <v>23.5731056965763</v>
       </c>
       <c r="E28">
-        <v>19.621815131196009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.621815131196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>18.950712433899099</v>
+        <v>18.9507124338991</v>
       </c>
       <c r="D29">
-        <v>25.715319246404039</v>
+        <v>25.715319246404</v>
       </c>
       <c r="E29">
-        <v>18.680122940073151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.6801229400732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>15.961967584194619</v>
+        <v>15.9619675841946</v>
       </c>
       <c r="D30">
-        <v>21.994941270724379</v>
+        <v>21.9949412707244</v>
       </c>
       <c r="E30">
-        <v>18.962973728015221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.9629737280152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>15.42268272215972</v>
+        <v>15.4226827221597</v>
       </c>
       <c r="D31">
-        <v>24.645437120676181</v>
+        <v>24.6454371206762</v>
       </c>
       <c r="E31">
-        <v>17.345538112895351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17.3455381128954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>22.038693028482349</v>
+        <v>22.0386930284823</v>
       </c>
       <c r="D32">
-        <v>23.065477826005161</v>
+        <v>23.0654778260052</v>
       </c>
       <c r="E32">
-        <v>21.782479703086281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.7824797030863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>21.803423444197879</v>
+        <v>21.8034234441979</v>
       </c>
       <c r="D33">
-        <v>21.380287983422221</v>
+        <v>21.3802879834222</v>
       </c>
       <c r="E33">
-        <v>21.197559056228329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.1975590562283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>21.448184963620829</v>
+        <v>21.4481849636208</v>
       </c>
       <c r="D34">
-        <v>20.02518480156359</v>
+        <v>20.0251848015636</v>
       </c>
       <c r="E34">
-        <v>22.195352197097659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22.1953521970977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>19.453980432289072</v>
+        <v>19.4539804322891</v>
       </c>
       <c r="D35">
-        <v>20.049020348517889</v>
+        <v>20.0490203485179</v>
       </c>
       <c r="E35">
         <v>22.9959965824909</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>23.902287215590079</v>
+        <v>23.9022872155901</v>
       </c>
       <c r="D36">
-        <v>21.918541652170411</v>
+        <v>21.9185416521704</v>
       </c>
       <c r="E36">
-        <v>26.30636491502311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26.3063649150231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>19.4653048742239</v>
       </c>
       <c r="D37">
-        <v>21.74464127344136</v>
+        <v>21.7446412734414</v>
       </c>
       <c r="E37">
         <v>22.3666840114767</v>
@@ -5998,407 +6653,416 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>13.284704399826509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.2847043998265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>8.7875525719672734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.78755257196727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>8.7404172367288364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.74041723672884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>9.1009110318339665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.10091103183397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>6.8141564135352901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.81415641353529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>11.21136746747886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11.2113674674789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>10.86130100766945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.8613010076695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>12.22559067971431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.2255906797143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>12.51263396366574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.5126339636657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>14.81425625882383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.8142562588238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>15.425635757279069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.4256357572791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>13.134644516506389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.1346445165064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>12.65237799297746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.6523779929775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>14.737878757259759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.7378787572598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>12.01965018946904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.019650189469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>18.747188148781529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.7471881487815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>17.769160181081929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.7691601810819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>15.296236521842941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.2962365218429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>13.43029820636368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.4302982063637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>18.030808561248119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.0308085612481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>17.82819023212107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.8281902321211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>19.856724467960191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.8567244679602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>15.608358511808451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.6083585118085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>17.100937465569341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17.1009374655693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>18.007865549577279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.0078655495773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>20.070470890647108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.0704708906471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B28">
-        <v>19.32490179278113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.3249017927811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B29">
-        <v>20.934274898521249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.9342748985212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>18.39856935592611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18.3985693559261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>19.786430772468059</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19.7864307724681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>22.18044344756785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.1804434475678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>22.77165825108812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22.7716582510881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>23.067422317133339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23.0674223171333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>20.313036862243202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20.3130368622432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>19.69882874389657</v>
+        <v>19.6988287438966</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>12.555353643797019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.555353643797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>10.66462802395918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.6646280239592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>8.5030269268868928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.50302692688689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>13.10230395104505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.102303951045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>10.231349268585721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.2313492685857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>12.358594368127649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.3585943681276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>10.135036962820219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10.1350369628202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>14.121495849763971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.121495849764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>13.510681684886411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13.5106816848864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>9.5020717030418531</v>
+        <v>9.50207170304185</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbeyer/repos/ExPlot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86A2EE2-1C1A-CD4A-96CD-DE77BAE97629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D5173-FA9A-024B-93D7-FF17EBF5BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="780" windowWidth="31900" windowHeight="22600" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="780" windowWidth="31900" windowHeight="22600" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEAP_TwoGroups" sheetId="9" r:id="rId1"/>
@@ -33,13 +33,15 @@
     <sheet name="Heatmap_Pivot" sheetId="19" r:id="rId18"/>
     <sheet name="Heatmap_Corr" sheetId="20" r:id="rId19"/>
     <sheet name="Heatmap_DrugScreen" sheetId="18" r:id="rId20"/>
+    <sheet name="DualAxis_Columns" sheetId="22" r:id="rId21"/>
+    <sheet name="DualAxis_Grouped" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="93">
   <si>
     <t>Condition</t>
   </si>
@@ -303,6 +305,21 @@
   </si>
   <si>
     <t>Measurement 2</t>
+  </si>
+  <si>
+    <t>Viability (%)</t>
+  </si>
+  <si>
+    <t>Protein (mg/mL)</t>
+  </si>
+  <si>
+    <t>Absorbance (AU)</t>
+  </si>
+  <si>
+    <t>Cell Line</t>
+  </si>
+  <si>
+    <t>CHO</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -10014,6 +10031,611 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A279C8E4-FB18-3F4A-9BA1-6119DEE349B3}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>98.417727190009515</v>
+      </c>
+      <c r="C2">
+        <v>2.3171366678656748</v>
+      </c>
+      <c r="D2">
+        <v>5.1656317157017823E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>91.08065975224045</v>
+      </c>
+      <c r="C3">
+        <v>2.6030854868705391</v>
+      </c>
+      <c r="D3">
+        <v>0.13487772563561179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>89.343627902203139</v>
+      </c>
+      <c r="C4">
+        <v>2.47108795339118</v>
+      </c>
+      <c r="D4">
+        <v>0.20760412881077361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>89.393722471738243</v>
+      </c>
+      <c r="C5">
+        <v>3.5972251908184378</v>
+      </c>
+      <c r="D5">
+        <v>0.2890717051166809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>87.476933159990821</v>
+      </c>
+      <c r="C6">
+        <v>3.8844753158751049</v>
+      </c>
+      <c r="D6">
+        <v>0.36446832512996991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>83.34273656237994</v>
+      </c>
+      <c r="C7">
+        <v>4.2969233999082128</v>
+      </c>
+      <c r="D7">
+        <v>0.44401896687959658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>79.768703435223514</v>
+      </c>
+      <c r="C8">
+        <v>5.1835028866522608</v>
+      </c>
+      <c r="D8">
+        <v>0.534062629111971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>76.397792608821419</v>
+      </c>
+      <c r="C9">
+        <v>5.809299856748785</v>
+      </c>
+      <c r="D9">
+        <v>0.6167812001428542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>71.042956019265148</v>
+      </c>
+      <c r="C10">
+        <v>6.2793840357348598</v>
+      </c>
+      <c r="D10">
+        <v>0.68963994939209838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>69.560311583210577</v>
+      </c>
+      <c r="C11">
+        <v>6.2482347430332084</v>
+      </c>
+      <c r="D11">
+        <v>0.77501766448946019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>67.078722458080421</v>
+      </c>
+      <c r="C12">
+        <v>6.9072362872446353</v>
+      </c>
+      <c r="D12">
+        <v>0.85180818012523829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3817E6B3-7EB6-2D4A-A542-D3DE5BF3C32A}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>533.90919744193639</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>0.54706009933035715</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>541.45791669640937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.87931893084619928</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>497.3658210552079</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>0.52788556817475796</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>624.94078582294287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.92056618979303595</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.3</v>
+      </c>
+      <c r="B10">
+        <v>522.50642575082566</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.3</v>
+      </c>
+      <c r="B11">
+        <v>0.8755912526796471</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>522.80926040695022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>0.67393329324840279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>754.1838302729152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1.0672736187182561</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>655.83982506896177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.337472161801621</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>691.44416067789223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.512779134168871</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1204.598796223939</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2.4675392597329422</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1323.282438446078</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2.7048447399026929</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1253.376410234396</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2.4650503627573088</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1761.090061227673</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>4.1635477071850646</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1730.7595185828161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4.2165027929122258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1758.2772629579911</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>4.0830244392844364</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1923.9345243409571</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>5.1033763929393334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1953.3449937155301</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>4.5213785702463651</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>1995.1471005575861</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>4.4887520260433407</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
